--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2434602.918759714</v>
+        <v>2547147.822969852</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13612885.47493279</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522949.528467927</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5681620.181031741</v>
+        <v>5972432.023348</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>227.3888483401185</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>235.8255589654118</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14516272044368</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>30.16338723330674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>361.8213802385749</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>172.9223206190831</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457223</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
         <v>52.84233230531351</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>112.528532034274</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>281.9110382403989</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>18.01779964994931</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>155.2137979687711</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1345,19 +1347,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>138.5086548028367</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>339.4727677772784</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>96.44420510686383</v>
+        <v>33.51529311720311</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1585,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.77381811190013</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686383</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>101.2376847552178</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.7612727945902</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2377,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.37033860849166</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2725,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>49.87597792716544</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>38.92194298460867</v>
       </c>
       <c r="X31" t="n">
-        <v>183.9762739924202</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>166.7963331037609</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>37.36157859846143</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>237.5559772452486</v>
+        <v>126.8868537735959</v>
       </c>
       <c r="X37" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>37.36157859846145</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>205.5903550446894</v>
+        <v>225.8267223175752</v>
       </c>
       <c r="Y40" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>67.31363360465242</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2946258015669</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>306.3656682211711</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>135.7049349459097</v>
+        <v>106.7228969293689</v>
       </c>
       <c r="D46" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>119.0447176631261</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>965.3211864711366</v>
+        <v>1371.151733343031</v>
       </c>
       <c r="C2" t="n">
-        <v>538.4204564844367</v>
+        <v>944.2510033563314</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1278356694369</v>
+        <v>924.9987865817357</v>
       </c>
       <c r="E2" t="n">
-        <v>93.19129985769854</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>1313.087264683184</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="N2" t="n">
-        <v>1313.087264683184</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="O2" t="n">
-        <v>1313.087264683184</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.466416767372</v>
+        <v>1602.134304741796</v>
       </c>
       <c r="Y2" t="n">
-        <v>1385.169550762667</v>
+        <v>1600.83743873709</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668166</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843214</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996064</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725436</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554478</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730518</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353614</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>133.8657769972732</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>405.5632662768643</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>405.5632662768643</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>498.2899918885869</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>977.228916131015</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.162523133587</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868794</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.5148980670743</v>
+        <v>168.9387714644725</v>
       </c>
       <c r="C4" t="n">
-        <v>308.5423349459903</v>
+        <v>168.9387714644725</v>
       </c>
       <c r="D4" t="n">
-        <v>308.5423349459903</v>
+        <v>168.9387714644725</v>
       </c>
       <c r="E4" t="n">
-        <v>308.5423349459903</v>
+        <v>168.9387714644725</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>168.9387714644725</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>912.6978401564124</v>
       </c>
       <c r="W4" t="n">
-        <v>548.3382947543912</v>
+        <v>637.8454363289254</v>
       </c>
       <c r="X4" t="n">
-        <v>548.3382947543912</v>
+        <v>395.2815397747305</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.3382947543912</v>
+        <v>168.9387714644725</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1820.815201993657</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>1393.914472006957</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>1374.662255232361</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>948.6853153802186</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>774.0163046538721</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>358.3859952497895</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>358.3859952497895</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>358.3859952497895</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>358.3859952497895</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.623162244782</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484409</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511718</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.5423349459903</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>308.5423349459903</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>308.5423349459903</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>308.5423349459903</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1428.000280878674</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1561.799391687468</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1281.614943187772</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>999.9034757958009</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>725.051071968314</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>725.051071968314</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.708303658056</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157.2403783903284</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3800524440326</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>1769.873171385915</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1769.873171385915</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1769.873171385915</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1267.18463721222</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1267.18463721222</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>982.4260127269681</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.0887426818584</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1445421254695</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254695</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>957.9304488282003</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>957.9304488282003</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>957.9304488282003</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1104.902165973849</v>
+        <v>651.4179035287244</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>479.4453404076404</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>239.8047369801043</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>594.4940582745251</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>985.6798532447758</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1104.902165973849</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W10" t="n">
-        <v>1104.902165973849</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X10" t="n">
-        <v>1104.902165973849</v>
+        <v>1067.926640551048</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.902165973849</v>
+        <v>841.58387224079</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.000543935605</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.099813948905</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1661.807193133905</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1235.830253281762</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>810.7060714711625</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>406.3670090606112</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>108.498630534646</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>73.60175927811717</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>789.1100672536162</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1699.931838320316</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>1806.565207806444</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N11" t="n">
-        <v>2717.386978873144</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O11" t="n">
-        <v>3562.531629023956</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P11" t="n">
-        <v>3562.531629023956</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q11" t="n">
-        <v>3562.531629023956</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3680.087963905858</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3680.087963905858</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3680.087963905858</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3680.087963905858</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3680.087963905858</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3680.087963905858</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3337.186178272244</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2931.848908227134</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>640.7252503095724</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>523.2193468270772</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>419.3793883423622</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>314.6774546152994</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>221.0316242982036</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>126.9778525158076</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>664.0866858464567</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>664.0866858464567</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>664.0866858464567</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>664.0866858464567</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1418.143912995848</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.143912995848</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1882.289389858627</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1882.289389858627</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1800.965142419881</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1659.08520671756</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1474.317010637196</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1269.343871776462</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1072.82249460968</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>909.3451483763428</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>769.6522597296351</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>417.4360966246408</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C13" t="n">
-        <v>245.4635335035567</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D13" t="n">
-        <v>245.4635335035567</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E13" t="n">
-        <v>245.4635335035567</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F13" t="n">
-        <v>73.60175927811717</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G13" t="n">
-        <v>73.60175927811717</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>73.60175927811717</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>131.0930875022752</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>357.6206887081124</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>712.3100100025331</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1103.495804972784</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.98731584882</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1836.415444528583</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2127.014656450483</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2254.014786691245</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2254.014786691245</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2156.596397694413</v>
+        <v>2201.823296074612</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.257049920313</v>
+        <v>1958.483948300512</v>
       </c>
       <c r="U13" t="n">
-        <v>1633.072601420617</v>
+        <v>1678.299499800816</v>
       </c>
       <c r="V13" t="n">
-        <v>1351.361134028646</v>
+        <v>1678.299499800816</v>
       </c>
       <c r="W13" t="n">
-        <v>1076.508730201159</v>
+        <v>1678.299499800816</v>
       </c>
       <c r="X13" t="n">
-        <v>833.9448336469643</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.6020653367063</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1774.896231742559</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1347.995501755859</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>924.7028809408594</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>498.725941088717</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>73.60175927811717</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>73.60175927811717</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>73.60175927811717</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>73.60175927811717</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>789.1100672536162</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1699.931838320316</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2610.753609387016</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3521.575380453716</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3680.087963905858</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3680.087963905858</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3680.087963905858</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3680.087963905858</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3680.087963905858</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3680.087963905858</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3421.733054502271</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3064.24363962852</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2667.852289928867</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2256.132291096615</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2194.744596034089</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>640.7252503095724</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>523.2193468270772</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>419.3793883423622</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>314.6774546152994</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>221.0316242982036</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>126.9778525158076</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>73.60175927811717</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>73.60175927811717</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>984.4235303448171</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N15" t="n">
-        <v>1084.072362735426</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O15" t="n">
-        <v>1084.072362735426</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P15" t="n">
-        <v>1800.270079773924</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1800.270079773924</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1882.289389858627</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1800.965142419881</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1659.08520671756</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1474.317010637196</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1269.343871776462</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1072.82249460968</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>909.3451483763428</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>769.6522597296351</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>417.4360966246408</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>245.4635335035567</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>245.4635335035567</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>245.4635335035567</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>73.60175927811717</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>131.0930875022752</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>357.6206887081124</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>712.3100100025331</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1103.495804972784</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.98731584882</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1836.415444528583</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2127.014656450483</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2254.014786691245</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2254.014786691245</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2156.596397694413</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.257049920313</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1633.072601420617</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1351.361134028646</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1076.508730201159</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>833.9448336469643</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.6020653367063</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5592,25 +5594,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1801.283937336665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1963.281792393732</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1681.570325001761</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N21" t="n">
-        <v>102.3027134058285</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O21" t="n">
-        <v>991.7839914173002</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1707.981708455798</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>4701.661275036462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>4419.949807644491</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W22" t="n">
-        <v>4419.949807644491</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>4419.949807644491</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,40 +5977,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6066,22 +6068,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>278.578971074189</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>106.7171968487494</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="26">
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>496.5168264363576</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>152.682489089834</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>913.0255634586812</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>686.6827951484232</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6540,19 +6542,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="X31" t="n">
-        <v>799.6197923376471</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.6197923376471</v>
+        <v>1041.68756743822</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6734,16 +6736,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6782,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.84032174079</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.867758619706</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D34" t="n">
-        <v>3033.867758619706</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E34" t="n">
-        <v>3033.867758619706</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.006290452855</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2285.740683576839</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>1893.736824846668</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1505.341075288197</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>807.1283056905535</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L35" t="n">
-        <v>1736.75335330983</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2741.039454728888</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3717.290513215589</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4562.435163366401</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3417.955702976145</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2670.69217661184</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>363.3174869946455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>363.3174869946455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>363.3174869946455</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M36" t="n">
-        <v>1419.304024970691</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.162151432785</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1436.162151432785</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1436.162151432785</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.3902927216686</v>
+        <v>753.250092117427</v>
       </c>
       <c r="C37" t="n">
-        <v>766.3146008571134</v>
+        <v>581.277528996343</v>
       </c>
       <c r="D37" t="n">
-        <v>637.8946992404129</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E37" t="n">
-        <v>506.5833646497953</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F37" t="n">
-        <v>369.6184616808845</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>238.2583632316454</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>129.3589659963286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2533.510671220076</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2398.27249499574</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2189.830018478168</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1944.542441235001</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>1697.727845099559</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W37" t="n">
-        <v>1457.772312528601</v>
+        <v>1412.322725693945</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.105287230935</v>
+        <v>1169.758829139751</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.659390177206</v>
+        <v>943.4160608294926</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>807.1283056905535</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1736.75335330983</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>2741.039454728888</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>3717.290513215589</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4562.435163366401</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4562.435163366401</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4580.999885752719</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>99.06664067696622</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>99.06664067696622</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>689.5515672453058</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>1436.162151432785</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M39" t="n">
-        <v>1436.162151432785</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.162151432785</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1436.162151432785</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1436.162151432785</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.3902927216686</v>
+        <v>847.365091998858</v>
       </c>
       <c r="C40" t="n">
-        <v>766.3146008571134</v>
+        <v>675.392528877774</v>
       </c>
       <c r="D40" t="n">
-        <v>637.8946992404129</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E40" t="n">
-        <v>506.5833646497953</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F40" t="n">
-        <v>369.6184616808845</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
-        <v>238.2583632316454</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>129.3589659963286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2533.510671220076</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2398.27249499574</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2189.830018478168</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.542441235001</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V40" t="n">
-        <v>1697.727845099559</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W40" t="n">
-        <v>1457.772312528601</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.105287230935</v>
+        <v>1037.531060710924</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.659390177206</v>
+        <v>1037.531060710924</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1475.732350299444</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1083.728491569273</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>695.3327420108019</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>695.3327420108019</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>695.3327420108019</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>325.8905508567794</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>62.919043587343</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>425.5225024042385</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1141.030810379738</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1141.030810379738</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1141.030810379738</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>1793.687200587694</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.310364981064</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>2572.310364981064</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3028.395844485247</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3145.95217936715</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3076.481756496819</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>2890.453056797981</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>2666.995018650922</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2599.001449353294</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2237.506970910169</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>1860.683843334445</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1860.683843334445</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>630.0425346187982</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>512.536631136303</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>408.696672651588</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>303.9947389245252</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>210.3489086074294</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>116.2951368250334</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>334.6165328669341</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>925.1014594352737</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>925.1014594352737</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>925.1014594352737</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>1703.724623828643</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O42" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1790.282426729107</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1648.402491026786</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1463.634294946422</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1258.661156085688</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1062.139778918906</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>898.6624326855685</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>758.9695440388609</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>886.8310806502554</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>749.7553887857002</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>636.3264738346226</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>505.0151392440049</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>368.0502362750941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>236.6901378258551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>127.7907405905382</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>154.6127953300249</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>415.3428200543859</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>804.2345648673306</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1229.622783356105</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1641.316717750665</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>2030.947269948952</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2355.748905389377</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2516.951459148663</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2516.951459148663</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2381.713282924326</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2173.270806406755</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.983229163588</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1681.168633028146</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1441.213100457188</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1233.546075159521</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.100178105792</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.984294853908</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.984294853908</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>822.5885452954366</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>822.5885452954366</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>432.3612347413656</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>62.919043587343</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>62.919043587343</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>425.5225024042385</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1141.030810379738</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1141.030810379738</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.705850580411</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2367.32901497378</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.95217936715</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>3145.95217936715</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>3145.95217936715</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3145.95217936715</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3145.95217936715</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>2959.923479668312</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2959.923479668312</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2637.33093605109</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2275.836457607966</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>1966.37618667749</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1595.935787888909</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>630.0425346187982</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>512.536631136303</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>408.696672651588</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>303.9947389245252</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>210.3489086074294</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>116.2951368250334</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>62.919043587343</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>62.919043587343</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>653.4039701556826</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>1407.461197305073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>1407.461197305073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>1407.461197305073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>1407.461197305073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1407.461197305073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1871.606674167853</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1790.282426729107</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1648.402491026786</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1463.634294946422</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1258.661156085688</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1062.139778918906</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>898.6624326855685</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>758.9695440388609</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>901.8220673158783</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>764.746375451323</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D46" t="n">
-        <v>636.3264738346226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E46" t="n">
-        <v>505.0151392440049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F46" t="n">
-        <v>368.0502362750941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6901378258551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>127.7907405905382</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>62.919043587343</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>154.6127953300249</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>415.3428200543859</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>804.2345648673306</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1229.622783356105</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1641.316717750665</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>2030.947269948952</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2355.748905389377</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2516.951459148663</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2516.951459148663</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2396.704269589949</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.261793072378</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1942.974215829211</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1696.159619693769</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1456.204087122811</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1248.537061825144</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1057.091164771415</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>500.2765795414152</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>114.7742293394937</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>465.2725720398027</v>
+        <v>116.1784459179898</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>360.4858157331555</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8228,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>97.8252091287798</v>
       </c>
       <c r="L6" t="n">
-        <v>100.4610141345439</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8383,16 +8385,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>111.5240152033034</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8534,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>177.813198534673</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,10 +8549,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>374.1586769883663</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8611,7 +8613,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>167.8347719225297</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>958.3340334090875</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>145.1417371278433</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>957.3016138109107</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O12" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>958.3340334090875</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>957.4532538758964</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>957.3016138109107</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>197.5046800147537</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>943.1187714887926</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>121.9984144666817</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N17" t="n">
-        <v>394.7585026918616</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>133.9113326837148</v>
+        <v>482.7542307206702</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L20" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>40.20030028999405</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,25 +9716,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O24" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10188,22 +10190,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>676.5644435722569</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>406.5994887481519</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>56.32760664489682</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10662,22 +10664,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>38.37143878131371</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>998.750394705596</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.87691943926264</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>776.6671919541075</v>
+        <v>39.5434972820015</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>696.5285018323822</v>
+        <v>991.4483453949176</v>
       </c>
       <c r="O41" t="n">
-        <v>823.8790041978116</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11136,22 +11138,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>807.8310730553292</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>192.7497183476863</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11300,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>489.628273203142</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>823.7676676762336</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>823.8790041978116</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>784.1890535317962</v>
+        <v>292.3948789900137</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11391,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>68.13003106665184</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>71.98949189919266</v>
+        <v>134.9184038888534</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.5100792327584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>71.98949189919266</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>176.1449192594809</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.31806783256513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>160.2240614002185</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>114.7184220815447</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>233.1819368046034</v>
       </c>
       <c r="X31" t="n">
-        <v>56.16198359623269</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>110.5862709109378</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26.86140143470185</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>145.2170260156162</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>26.86140143470183</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>14.31153527107767</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>387.1692679096575</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>386.3250374485302</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>252.0529845763971</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>366.735994800695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>14.8410767989666</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>388.0838201428693</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>387.1692679096575</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>221.2234577655883</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>66.68922807879557</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.52994056050429</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>14.8410767989669</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>497294.084839303</v>
+        <v>498670.9759104818</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>497294.084839303</v>
+        <v>503129.0471289787</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>497294.084839303</v>
+        <v>503129.0471289787</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418618.8928205121</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418618.8928205121</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>521470.2428194259</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521470.242819426</v>
+        <v>521470.2428194261</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>530476.9647752801</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>530476.9647752801</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427625.6147763662</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427625.6147763662</v>
+        <v>521470.2428194261</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.6013108839</v>
+        <v>567881.601310884</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108842</v>
       </c>
       <c r="D2" t="n">
         <v>567881.6013108839</v>
       </c>
       <c r="E2" t="n">
-        <v>439924.5373307061</v>
+        <v>547979.6430590111</v>
       </c>
       <c r="F2" t="n">
-        <v>439924.5373307061</v>
+        <v>547979.6430590112</v>
       </c>
       <c r="G2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547979.6430590112</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547979.6430590112</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547979.6430590112</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547979.6430590112</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="N2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="H2" t="n">
-        <v>547979.6430590106</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>547979.643059011</v>
       </c>
-      <c r="J2" t="n">
-        <v>547979.6430590109</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547979.6430590109</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>547979.6430590111</v>
-      </c>
-      <c r="M2" t="n">
-        <v>567253.0445173108</v>
-      </c>
-      <c r="N2" t="n">
-        <v>567253.0445173109</v>
-      </c>
-      <c r="O2" t="n">
-        <v>459197.9387890072</v>
-      </c>
-      <c r="P2" t="n">
-        <v>459197.9387890073</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>136934.4649596618</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98331.26265117216</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>108651.5866468254</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>69565.73254261704</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
-        <v>69565.73254261704</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26448,16 +26450,16 @@
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>115232.682961242</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="N4" t="n">
-        <v>115232.682961242</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>98101.67485601128</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="P4" t="n">
-        <v>98101.67485601126</v>
+        <v>86696.74064784778</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55937.33705136905</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55937.33705136905</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>50722.88074534915</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>50722.88074534915</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144463.8874803376</v>
+        <v>139348.7101395781</v>
       </c>
       <c r="C6" t="n">
-        <v>299089.6080984583</v>
+        <v>285784.7878472236</v>
       </c>
       <c r="D6" t="n">
-        <v>299089.6080984581</v>
+        <v>309191.6215208354</v>
       </c>
       <c r="E6" t="n">
-        <v>177487.0027770582</v>
+        <v>167793.483666093</v>
       </c>
       <c r="F6" t="n">
-        <v>314421.46773672</v>
+        <v>383532.8402227337</v>
       </c>
       <c r="G6" t="n">
-        <v>285201.5775715612</v>
+        <v>383532.8402227333</v>
       </c>
       <c r="H6" t="n">
-        <v>383532.8402227332</v>
+        <v>383532.8402227333</v>
       </c>
       <c r="I6" t="n">
-        <v>383532.8402227335</v>
+        <v>383532.8402227337</v>
       </c>
       <c r="J6" t="n">
-        <v>262810.3232799765</v>
+        <v>256955.571642445</v>
       </c>
       <c r="K6" t="n">
+        <v>364886.2398657139</v>
+      </c>
+      <c r="L6" t="n">
+        <v>383532.8402227337</v>
+      </c>
+      <c r="M6" t="n">
+        <v>203468.9687675655</v>
+      </c>
+      <c r="N6" t="n">
         <v>383532.8402227334</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>383532.8402227336</v>
       </c>
-      <c r="M6" t="n">
-        <v>270833.1690268336</v>
-      </c>
-      <c r="N6" t="n">
-        <v>379484.7556736591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>310373.3831876467</v>
-      </c>
       <c r="P6" t="n">
-        <v>310373.3831876468</v>
+        <v>383532.8402227336</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>920.0219909764646</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>920.0219909764646</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>786.4880448417875</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>786.4880448417875</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6220852161305</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>358.7619265963922</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>325.0881390814536</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>458.6220852161305</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>358.7619265963922</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>188.2610323084962</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>171.7772398785184</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.1191463045013</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27546,10 +27548,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>134.4310127754034</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>53.82850041003985</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>247.9506193734107</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>128.377422262085</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>163.7887810877119</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>125.6917606035313</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.2660976947092</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.03903952110207</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>101.6296027858162</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>462.9969567069692</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>442.7574853255732</v>
+        <v>93.66335920376021</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="L6" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35103,16 +35105,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>76.49136530850697</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>352.3878357835376</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35331,7 +35333,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>146.8701174698177</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>920.0219909764646</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>107.7104742284114</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>920.0219909764646</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O12" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>920.0219909764646</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>920.0219909764646</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>920.0219909764646</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>160.1137206587296</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>920.0219909764646</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>100.65538625314</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N17" t="n">
-        <v>357.4788798574156</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>110.8145521713869</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O24" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>18.75224483466552</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>17.02841056777205</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>961.47077187115</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.7522448346646</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>754.1521052398779</v>
+        <v>17.02841056777194</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>659.2488789979361</v>
+        <v>954.1687225604716</v>
       </c>
       <c r="O41" t="n">
-        <v>786.4880448417875</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>786.4880448417875</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>169.577828625464</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>452.1970103037102</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>786.4880448417875</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>786.4880448417875</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>761.6739668175666</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2547147.822969852</v>
+        <v>2546451.16176476</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.3888483401185</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>103.4940507690007</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>30.16338723330674</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>262.5784174083756</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.8213802385749</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>201.3265593099295</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.805618920998063</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1055716303395</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1138,13 +1138,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>138.5086548028367</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.51529311720311</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>116.0515830380577</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>102.0412378013742</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536202</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>4.370338608491547</v>
       </c>
       <c r="U19" t="n">
-        <v>101.2376847552178</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068488</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>134.6953597735377</v>
       </c>
       <c r="G25" t="n">
-        <v>4.37033860849166</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>38.92194298460867</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>166.7963331037609</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3480,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>126.8868537735959</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>101.992961581339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>225.8267223175752</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>106.7228969293689</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1371.151733343031</v>
+        <v>526.242815342321</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2510033563314</v>
+        <v>503.3824893960252</v>
       </c>
       <c r="D2" t="n">
-        <v>924.9987865817357</v>
+        <v>484.1302726214296</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295933</v>
+        <v>462.1937368096912</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>441.1099590394955</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>1359.183442594069</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="M2" t="n">
-        <v>1359.183442594069</v>
+        <v>1359.18344259407</v>
       </c>
       <c r="N2" t="n">
-        <v>1817.550429733969</v>
+        <v>1359.18344259407</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.550429733969</v>
+        <v>1359.18344259407</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733969</v>
+        <v>1479.02128511169</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533645</v>
+        <v>1351.458990130059</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.813899533645</v>
+        <v>1351.458990130059</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.813899533645</v>
+        <v>955.0676404304054</v>
       </c>
       <c r="X2" t="n">
-        <v>1602.134304741796</v>
+        <v>543.3476415981527</v>
       </c>
       <c r="Y2" t="n">
-        <v>1600.83743873709</v>
+        <v>542.050775593447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668166</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843214</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996064</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725436</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554478</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730518</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353614</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972732</v>
+        <v>46.14877825422929</v>
       </c>
       <c r="J3" t="n">
-        <v>405.5632662768643</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>405.5632662768643</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="L3" t="n">
-        <v>498.2899918885869</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="M3" t="n">
-        <v>977.228916131015</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="N3" t="n">
-        <v>1456.167840373443</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="O3" t="n">
-        <v>1456.167840373443</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615871</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615871</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.162523133587</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868794</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9387714644725</v>
+        <v>454.2395351649711</v>
       </c>
       <c r="C4" t="n">
-        <v>168.9387714644725</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9387714644725</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="E4" t="n">
-        <v>168.9387714644725</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="F4" t="n">
-        <v>168.9387714644725</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>165.7127968735012</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>520.402118167922</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>911.5879131381728</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1289.079424014209</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1644.507552693972</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822179</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048079</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548384</v>
+        <v>1669.876039960948</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564124</v>
+        <v>1388.164572568977</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8454363289254</v>
+        <v>1113.31216874149</v>
       </c>
       <c r="X4" t="n">
-        <v>395.2815397747305</v>
+        <v>870.7482721872948</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.9387714644725</v>
+        <v>644.4055038770368</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
         <v>915.1502218567327</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.864363543668</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1707.527093498559</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1699405917395</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4725,25 +4725,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
@@ -4758,19 +4758,19 @@
         <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="8">
@@ -4786,10 +4786,10 @@
         <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>1632.703658905035</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
         <v>781.6025372422929</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4889,16 +4889,16 @@
         <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>205.6899987133984</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4179035287244</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4453404076404</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>316.1285675344111</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>316.1285675344111</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.834372675125</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.926640551048</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>841.58387224079</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,49 +5029,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5111,37 +5111,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.226866224298</v>
+        <v>689.7018875039217</v>
       </c>
       <c r="C13" t="n">
-        <v>847.2543031032136</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9375302299843</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="E13" t="n">
-        <v>517.7293243828378</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2201.823296074612</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.483948300512</v>
+        <v>1995.356872087528</v>
       </c>
       <c r="U13" t="n">
-        <v>1678.299499800816</v>
+        <v>1715.172423587833</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.299499800816</v>
+        <v>1433.460956195862</v>
       </c>
       <c r="W13" t="n">
-        <v>1678.299499800816</v>
+        <v>1158.608552368375</v>
       </c>
       <c r="X13" t="n">
-        <v>1435.735603246621</v>
+        <v>916.0446558141797</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.392834936363</v>
+        <v>689.7018875039217</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5287,43 +5287,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C16" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D16" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E16" t="n">
-        <v>274.1644876312681</v>
+        <v>205.3746707809539</v>
       </c>
       <c r="F16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>557.3635891120873</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>557.3635891120873</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.6452875977553</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6727244766713</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D19" t="n">
-        <v>412.355951603442</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U19" t="n">
-        <v>1963.281792393732</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V19" t="n">
-        <v>1681.570325001761</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.717921174274</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.154024620079</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.8112563098209</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>1429.986740661465</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M24" t="n">
-        <v>1429.986740661465</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.7597400424195</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="C25" t="n">
-        <v>444.7871769213355</v>
+        <v>567.8836110893737</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7871769213355</v>
+        <v>404.5668382161444</v>
       </c>
       <c r="E25" t="n">
-        <v>278.578971074189</v>
+        <v>238.358632368998</v>
       </c>
       <c r="F25" t="n">
-        <v>106.7171968487494</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1832.396244838396</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V25" t="n">
-        <v>1550.684777446425</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.832373618938</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X25" t="n">
-        <v>1033.268477064743</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.9257087544852</v>
+        <v>930.0221429225235</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6305,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1268.030335748478</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.030335748478</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1041.68756743822</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M33" t="n">
-        <v>1529.586448057074</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1700.760201014738</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1700.760201014738</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7019,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L36" t="n">
-        <v>557.3635891120873</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>557.3635891120873</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.250092117427</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>581.277528996343</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.322725693945</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.758829139751</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.4160608294926</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>1852.677416841654</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2856.963518260712</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>390.8583291475138</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.365091998858</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>675.392528877774</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>512.0757560045447</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>345.8675501573982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.491264859194</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.638861031707</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.531060710924</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.531060710924</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7411,31 +7411,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
         <v>5010.768376164567</v>
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D43" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,43 +7657,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7785,13 +7785,13 @@
         <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>265.6194862790578</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865907</v>
+        <v>522.088733586591</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533999</v>
       </c>
       <c r="N2" t="n">
-        <v>500.2765795414152</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>158.6236875856048</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873015</v>
       </c>
       <c r="L3" t="n">
-        <v>116.1784459179898</v>
+        <v>506.2917778681977</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675095</v>
+        <v>32.15859945295394</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>149.2582520094633</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642101</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,7 +8230,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>97.8252091287798</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8318,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8537,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>177.813198534673</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339852</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8695,13 +8695,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>440.9328573103608</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,10 +8789,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055937</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9014,7 +9014,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6255543726317</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059664</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>482.7542307206702</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>40.20030028999405</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9722,25 +9722,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>169.8313495973723</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,13 +9889,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9953,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>178.7542596924545</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>676.5644435722569</v>
+        <v>649.6845753175837</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>669.0425819945682</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>406.5994887481519</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10667,10 +10667,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L36" t="n">
-        <v>482.1725369225717</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>717.3655137896236</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>998.750394705596</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10907,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>39.5434972820015</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>844.7332849752614</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635589</v>
       </c>
       <c r="N41" t="n">
-        <v>991.4483453949176</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>292.3948789900137</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9184038888534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>124.8543712583013</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.101918681811</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1449192594809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>35.44779670964743</v>
       </c>
       <c r="G25" t="n">
-        <v>160.2240614002185</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>233.1819368046034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.5862709109378</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.2170260156162</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>68.15019490184621</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>14.31153527107767</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>63.52994056050429</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>521470.242819426</v>
+        <v>521470.2428194259</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521470.2428194261</v>
+        <v>521470.242819426</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>521470.2428194261</v>
+        <v>521470.242819426</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>567881.6013108835</v>
+      </c>
+      <c r="C2" t="n">
+        <v>567881.6013108841</v>
+      </c>
+      <c r="D2" t="n">
         <v>567881.601310884</v>
       </c>
-      <c r="C2" t="n">
-        <v>567881.6013108842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>567881.6013108839</v>
-      </c>
       <c r="E2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="I2" t="n">
         <v>547979.6430590111</v>
       </c>
-      <c r="F2" t="n">
-        <v>547979.6430590112</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547979.6430590112</v>
-      </c>
       <c r="J2" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="K2" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="L2" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.643059011</v>
       </c>
       <c r="M2" t="n">
-        <v>547979.6430590106</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="N2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="O2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="P2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590109</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361217</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795535</v>
+        <v>203366.9722795534</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,19 +26426,19 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
+        <v>86696.74064784774</v>
+      </c>
+      <c r="F4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="G4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="H4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="I4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="F4" t="n">
-        <v>86696.74064784778</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86696.74064784771</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86696.74064784775</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
         <v>86696.74064784778</v>
@@ -26450,16 +26450,16 @@
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="N4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="P4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784775</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139348.7101395781</v>
+        <v>139348.7101395776</v>
       </c>
       <c r="C6" t="n">
-        <v>285784.7878472236</v>
+        <v>285784.7878472235</v>
       </c>
       <c r="D6" t="n">
-        <v>309191.6215208354</v>
+        <v>309191.6215208356</v>
       </c>
       <c r="E6" t="n">
-        <v>167793.483666093</v>
+        <v>167742.4530039086</v>
       </c>
       <c r="F6" t="n">
-        <v>383532.8402227337</v>
+        <v>383481.8095605489</v>
       </c>
       <c r="G6" t="n">
-        <v>383532.8402227333</v>
+        <v>383481.8095605492</v>
       </c>
       <c r="H6" t="n">
-        <v>383532.8402227333</v>
+        <v>383481.8095605492</v>
       </c>
       <c r="I6" t="n">
-        <v>383532.8402227337</v>
+        <v>383481.8095605492</v>
       </c>
       <c r="J6" t="n">
-        <v>256955.571642445</v>
+        <v>256904.5409802602</v>
       </c>
       <c r="K6" t="n">
-        <v>364886.2398657139</v>
+        <v>364835.2092035293</v>
       </c>
       <c r="L6" t="n">
-        <v>383532.8402227337</v>
+        <v>383481.8095605492</v>
       </c>
       <c r="M6" t="n">
-        <v>203468.9687675655</v>
+        <v>203417.9381053816</v>
       </c>
       <c r="N6" t="n">
-        <v>383532.8402227334</v>
+        <v>383481.8095605492</v>
       </c>
       <c r="O6" t="n">
-        <v>383532.8402227336</v>
+        <v>383481.8095605492</v>
       </c>
       <c r="P6" t="n">
-        <v>383532.8402227336</v>
+        <v>383481.8095605492</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,16 +26798,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.2610323084962</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>296.8016210174451</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27551,10 +27551,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>134.4310127754034</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.80418660632313</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.82850041003985</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>206.2762395340007</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>276.5769850937007</v>
       </c>
       <c r="V7" t="n">
-        <v>163.7887810877119</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.6296027858162</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N2" t="n">
-        <v>462.9969567069692</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>121.0483257753735</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L3" t="n">
-        <v>93.66335920376021</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539678</v>
+        <v>10.81557123941228</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>128.2935975567513</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>75.42597529544646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>48.74406945557187</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35415,13 +35415,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.8081827057627</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.899392706162</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>163.8547131678031</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>459.6574502083422</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>17.02841056777183</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,13 +36609,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>155.5823699702323</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>654.0493568580273</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>961.47077187115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>17.02841056777194</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641272</v>
       </c>
       <c r="N41" t="n">
-        <v>954.1687225604716</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
